--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Apoe-Scarb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Apoe-Scarb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.020839</v>
+        <v>13.10570166666667</v>
       </c>
       <c r="H2">
-        <v>57.06251699999999</v>
+        <v>39.317105</v>
       </c>
       <c r="I2">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="J2">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>64.44050866666666</v>
+        <v>72.23097766666666</v>
       </c>
       <c r="N2">
-        <v>193.321526</v>
+        <v>216.692933</v>
       </c>
       <c r="O2">
-        <v>0.5284084541711455</v>
+        <v>0.6170594568990628</v>
       </c>
       <c r="P2">
-        <v>0.5284084541711456</v>
+        <v>0.6170594568990629</v>
       </c>
       <c r="Q2">
-        <v>1225.712540426771</v>
+        <v>946.637644390996</v>
       </c>
       <c r="R2">
-        <v>11031.41286384094</v>
+        <v>8519.738799518964</v>
       </c>
       <c r="S2">
-        <v>0.001545676728406369</v>
+        <v>0.002687873629857146</v>
       </c>
       <c r="T2">
-        <v>0.00154567672840637</v>
+        <v>0.002687873629857146</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.020839</v>
+        <v>13.10570166666667</v>
       </c>
       <c r="H3">
-        <v>57.06251699999999</v>
+        <v>39.317105</v>
       </c>
       <c r="I3">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="J3">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.371831</v>
       </c>
       <c r="O3">
-        <v>0.02014952966552173</v>
+        <v>0.02099218451767264</v>
       </c>
       <c r="P3">
-        <v>0.02014952966552173</v>
+        <v>0.02099218451767265</v>
       </c>
       <c r="Q3">
-        <v>46.73947019540299</v>
+        <v>32.20433927436166</v>
       </c>
       <c r="R3">
-        <v>420.6552317586269</v>
+        <v>289.839053469255</v>
       </c>
       <c r="S3">
-        <v>5.894050113407782E-05</v>
+        <v>9.144068463304907E-05</v>
       </c>
       <c r="T3">
-        <v>5.894050113407784E-05</v>
+        <v>9.144068463304908E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.020839</v>
+        <v>13.10570166666667</v>
       </c>
       <c r="H4">
-        <v>57.06251699999999</v>
+        <v>39.317105</v>
       </c>
       <c r="I4">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="J4">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.791731</v>
+        <v>18.10887533333333</v>
       </c>
       <c r="N4">
-        <v>59.375193</v>
+        <v>54.326626</v>
       </c>
       <c r="O4">
-        <v>0.162291052623097</v>
+        <v>0.1547016687190187</v>
       </c>
       <c r="P4">
-        <v>0.1622910526230971</v>
+        <v>0.1547016687190187</v>
       </c>
       <c r="Q4">
-        <v>376.4553288823089</v>
+        <v>237.3295176375256</v>
       </c>
       <c r="R4">
-        <v>3388.09795994078</v>
+        <v>2135.96565873773</v>
       </c>
       <c r="S4">
-        <v>0.0004747265137185849</v>
+        <v>0.0006738711013917173</v>
       </c>
       <c r="T4">
-        <v>0.000474726513718585</v>
+        <v>0.0006738711013917173</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.020839</v>
+        <v>13.10570166666667</v>
       </c>
       <c r="H5">
-        <v>57.06251699999999</v>
+        <v>39.317105</v>
       </c>
       <c r="I5">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="J5">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.960099333333333</v>
+        <v>3.682952333333333</v>
       </c>
       <c r="N5">
-        <v>8.880298</v>
+        <v>11.048857</v>
       </c>
       <c r="O5">
-        <v>0.02427264379632052</v>
+        <v>0.03146296284510307</v>
       </c>
       <c r="P5">
-        <v>0.02427264379632052</v>
+        <v>0.03146296284510307</v>
       </c>
       <c r="Q5">
-        <v>56.30357284334067</v>
+        <v>48.26767453322055</v>
       </c>
       <c r="R5">
-        <v>506.7321555900659</v>
+        <v>434.409070798985</v>
       </c>
       <c r="S5">
-        <v>7.100124980346796E-05</v>
+        <v>0.0001370507609971874</v>
       </c>
       <c r="T5">
-        <v>7.100124980346798E-05</v>
+        <v>0.0001370507609971874</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.020839</v>
+        <v>13.10570166666667</v>
       </c>
       <c r="H6">
-        <v>57.06251699999999</v>
+        <v>39.317105</v>
       </c>
       <c r="I6">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="J6">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.452280999999999</v>
+        <v>8.370851</v>
       </c>
       <c r="N6">
-        <v>22.356843</v>
+        <v>25.112553</v>
       </c>
       <c r="O6">
-        <v>0.0611082743562504</v>
+        <v>0.07151104607333426</v>
       </c>
       <c r="P6">
-        <v>0.06110827435625042</v>
+        <v>0.07151104607333425</v>
       </c>
       <c r="Q6">
-        <v>141.748637083759</v>
+        <v>109.7058759021183</v>
       </c>
       <c r="R6">
-        <v>1275.737733753831</v>
+        <v>987.3528831190649</v>
       </c>
       <c r="S6">
-        <v>0.0001787511854511993</v>
+        <v>0.0003114977865341366</v>
       </c>
       <c r="T6">
-        <v>0.0001787511854511993</v>
+        <v>0.0003114977865341365</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.020839</v>
+        <v>13.10570166666667</v>
       </c>
       <c r="H7">
-        <v>57.06251699999999</v>
+        <v>39.317105</v>
       </c>
       <c r="I7">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="J7">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.85018033333334</v>
+        <v>12.20582166666667</v>
       </c>
       <c r="N7">
-        <v>74.55054100000001</v>
+        <v>36.617465</v>
       </c>
       <c r="O7">
-        <v>0.2037700453876648</v>
+        <v>0.1042726809458084</v>
       </c>
       <c r="P7">
-        <v>0.2037700453876648</v>
+        <v>0.1042726809458084</v>
       </c>
       <c r="Q7">
-        <v>472.6712792412997</v>
+        <v>159.9658573598694</v>
       </c>
       <c r="R7">
-        <v>4254.041513171697</v>
+        <v>1439.692716238825</v>
       </c>
       <c r="S7">
-        <v>0.0005960590043852899</v>
+        <v>0.0004542054842449199</v>
       </c>
       <c r="T7">
-        <v>0.00059605900438529</v>
+        <v>0.0004542054842449199</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>9.729894999999999</v>
       </c>
       <c r="I8">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="J8">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>64.44050866666666</v>
+        <v>72.23097766666666</v>
       </c>
       <c r="N8">
-        <v>193.321526</v>
+        <v>216.692933</v>
       </c>
       <c r="O8">
-        <v>0.5284084541711455</v>
+        <v>0.6170594568990628</v>
       </c>
       <c r="P8">
-        <v>0.5284084541711456</v>
+        <v>0.6170594568990629</v>
       </c>
       <c r="Q8">
-        <v>208.9997943577522</v>
+        <v>234.2666094813372</v>
       </c>
       <c r="R8">
-        <v>1880.99814921977</v>
+        <v>2108.399485332035</v>
       </c>
       <c r="S8">
-        <v>0.0002635578145166203</v>
+        <v>0.0006651743100561165</v>
       </c>
       <c r="T8">
-        <v>0.0002635578145166203</v>
+        <v>0.0006651743100561166</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>9.729894999999999</v>
       </c>
       <c r="I9">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="J9">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>7.371831</v>
       </c>
       <c r="O9">
-        <v>0.02014952966552173</v>
+        <v>0.02099218451767264</v>
       </c>
       <c r="P9">
-        <v>0.02014952966552173</v>
+        <v>0.02099218451767265</v>
       </c>
       <c r="Q9">
         <v>7.969682398638333</v>
@@ -1013,10 +1013,10 @@
         <v>71.727141587745</v>
       </c>
       <c r="S9">
-        <v>1.005011551246431E-05</v>
+        <v>2.262903792656354E-05</v>
       </c>
       <c r="T9">
-        <v>1.005011551246431E-05</v>
+        <v>2.262903792656354E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>9.729894999999999</v>
       </c>
       <c r="I10">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="J10">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.791731</v>
+        <v>18.10887533333333</v>
       </c>
       <c r="N10">
-        <v>59.375193</v>
+        <v>54.326626</v>
       </c>
       <c r="O10">
-        <v>0.162291052623097</v>
+        <v>0.1547016687190187</v>
       </c>
       <c r="P10">
-        <v>0.1622910526230971</v>
+        <v>0.1547016687190187</v>
       </c>
       <c r="Q10">
-        <v>64.19048816608166</v>
+        <v>58.73248518714111</v>
       </c>
       <c r="R10">
-        <v>577.7143934947348</v>
+        <v>528.59236668427</v>
       </c>
       <c r="S10">
-        <v>8.094699243985139E-05</v>
+        <v>0.000166764441585304</v>
       </c>
       <c r="T10">
-        <v>8.09469924398514E-05</v>
+        <v>0.000166764441585304</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>9.729894999999999</v>
       </c>
       <c r="I11">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="J11">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.960099333333333</v>
+        <v>3.682952333333333</v>
       </c>
       <c r="N11">
-        <v>8.880298</v>
+        <v>11.048857</v>
       </c>
       <c r="O11">
-        <v>0.02427264379632052</v>
+        <v>0.03146296284510307</v>
       </c>
       <c r="P11">
-        <v>0.02427264379632052</v>
+        <v>0.03146296284510307</v>
       </c>
       <c r="Q11">
-        <v>9.600485234301111</v>
+        <v>11.94491316444611</v>
       </c>
       <c r="R11">
-        <v>86.40436710870999</v>
+        <v>107.504218480015</v>
       </c>
       <c r="S11">
-        <v>1.210662869036278E-05</v>
+        <v>3.391626911932423E-05</v>
       </c>
       <c r="T11">
-        <v>1.210662869036278E-05</v>
+        <v>3.391626911932423E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>9.729894999999999</v>
       </c>
       <c r="I12">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="J12">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.452280999999999</v>
+        <v>8.370851</v>
       </c>
       <c r="N12">
-        <v>22.356843</v>
+        <v>25.112553</v>
       </c>
       <c r="O12">
-        <v>0.0611082743562504</v>
+        <v>0.07151104607333426</v>
       </c>
       <c r="P12">
-        <v>0.06110827435625042</v>
+        <v>0.07151104607333425</v>
       </c>
       <c r="Q12">
-        <v>24.16997054683166</v>
+        <v>27.14916709688167</v>
       </c>
       <c r="R12">
-        <v>217.529734921485</v>
+        <v>244.342503871935</v>
       </c>
       <c r="S12">
-        <v>3.047938221101773E-05</v>
+        <v>7.708707840288756E-05</v>
       </c>
       <c r="T12">
-        <v>3.047938221101773E-05</v>
+        <v>7.708707840288755E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>9.729894999999999</v>
       </c>
       <c r="I13">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="J13">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>24.85018033333334</v>
+        <v>12.20582166666667</v>
       </c>
       <c r="N13">
-        <v>74.55054100000001</v>
+        <v>36.617465</v>
       </c>
       <c r="O13">
-        <v>0.2037700453876648</v>
+        <v>0.1042726809458084</v>
       </c>
       <c r="P13">
-        <v>0.2037700453876648</v>
+        <v>0.1042726809458084</v>
       </c>
       <c r="Q13">
-        <v>80.59654845813279</v>
+        <v>39.58712106846388</v>
       </c>
       <c r="R13">
-        <v>725.368936123195</v>
+        <v>356.2840896161749</v>
       </c>
       <c r="S13">
-        <v>0.0001016357467455109</v>
+        <v>0.0001124032827474766</v>
       </c>
       <c r="T13">
-        <v>0.0001016357467455109</v>
+        <v>0.0001124032827474766</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2517.581258333333</v>
+        <v>608.3979493333333</v>
       </c>
       <c r="H14">
-        <v>7552.743774999999</v>
+        <v>1825.193848</v>
       </c>
       <c r="I14">
-        <v>0.3871709269072258</v>
+        <v>0.2022131050118309</v>
       </c>
       <c r="J14">
-        <v>0.3871709269072258</v>
+        <v>0.202213105011831</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>64.44050866666666</v>
+        <v>72.23097766666666</v>
       </c>
       <c r="N14">
-        <v>193.321526</v>
+        <v>216.692933</v>
       </c>
       <c r="O14">
-        <v>0.5284084541711455</v>
+        <v>0.6170594568990628</v>
       </c>
       <c r="P14">
-        <v>0.5284084541711456</v>
+        <v>0.6170594568990629</v>
       </c>
       <c r="Q14">
-        <v>162234.2168966667</v>
+        <v>43945.17869074179</v>
       </c>
       <c r="R14">
-        <v>1460107.95207</v>
+        <v>395506.6082166761</v>
       </c>
       <c r="S14">
-        <v>0.2045843909870567</v>
+        <v>0.1247775087564736</v>
       </c>
       <c r="T14">
-        <v>0.2045843909870567</v>
+        <v>0.1247775087564736</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2517.581258333333</v>
+        <v>608.3979493333333</v>
       </c>
       <c r="H15">
-        <v>7552.743774999999</v>
+        <v>1825.193848</v>
       </c>
       <c r="I15">
-        <v>0.3871709269072258</v>
+        <v>0.2022131050118309</v>
       </c>
       <c r="J15">
-        <v>0.3871709269072258</v>
+        <v>0.202213105011831</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>7.371831</v>
       </c>
       <c r="O15">
-        <v>0.02014952966552173</v>
+        <v>0.02099218451767264</v>
       </c>
       <c r="P15">
-        <v>0.02014952966552173</v>
+        <v>0.02099218451767265</v>
       </c>
       <c r="Q15">
-        <v>6186.394521733558</v>
+        <v>1495.002287743965</v>
       </c>
       <c r="R15">
-        <v>55677.55069560202</v>
+        <v>13455.02058969569</v>
       </c>
       <c r="S15">
-        <v>0.00780131207734469</v>
+        <v>0.00424489481229987</v>
       </c>
       <c r="T15">
-        <v>0.007801312077344693</v>
+        <v>0.004244894812299871</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2517.581258333333</v>
+        <v>608.3979493333333</v>
       </c>
       <c r="H16">
-        <v>7552.743774999999</v>
+        <v>1825.193848</v>
       </c>
       <c r="I16">
-        <v>0.3871709269072258</v>
+        <v>0.2022131050118309</v>
       </c>
       <c r="J16">
-        <v>0.3871709269072258</v>
+        <v>0.202213105011831</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.791731</v>
+        <v>18.10887533333333</v>
       </c>
       <c r="N16">
-        <v>59.375193</v>
+        <v>54.326626</v>
       </c>
       <c r="O16">
-        <v>0.162291052623097</v>
+        <v>0.1547016687190187</v>
       </c>
       <c r="P16">
-        <v>0.1622910526230971</v>
+        <v>0.1547016687190187</v>
       </c>
       <c r="Q16">
-        <v>49827.29103557483</v>
+        <v>11017.40261753298</v>
       </c>
       <c r="R16">
-        <v>448445.6193201735</v>
+        <v>99156.62355779685</v>
       </c>
       <c r="S16">
-        <v>0.06283437727283384</v>
+        <v>0.03128270478218441</v>
       </c>
       <c r="T16">
-        <v>0.06283437727283385</v>
+        <v>0.03128270478218441</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2517.581258333333</v>
+        <v>608.3979493333333</v>
       </c>
       <c r="H17">
-        <v>7552.743774999999</v>
+        <v>1825.193848</v>
       </c>
       <c r="I17">
-        <v>0.3871709269072258</v>
+        <v>0.2022131050118309</v>
       </c>
       <c r="J17">
-        <v>0.3871709269072258</v>
+        <v>0.202213105011831</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.960099333333333</v>
+        <v>3.682952333333333</v>
       </c>
       <c r="N17">
-        <v>8.880298</v>
+        <v>11.048857</v>
       </c>
       <c r="O17">
-        <v>0.02427264379632052</v>
+        <v>0.03146296284510307</v>
       </c>
       <c r="P17">
-        <v>0.02427264379632052</v>
+        <v>0.03146296284510307</v>
       </c>
       <c r="Q17">
-        <v>7452.290604404994</v>
+        <v>2240.700647092415</v>
       </c>
       <c r="R17">
-        <v>67070.61543964494</v>
+        <v>20166.30582383174</v>
       </c>
       <c r="S17">
-        <v>0.009397661997110337</v>
+        <v>0.006362223409780163</v>
       </c>
       <c r="T17">
-        <v>0.00939766199711034</v>
+        <v>0.006362223409780164</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2517.581258333333</v>
+        <v>608.3979493333333</v>
       </c>
       <c r="H18">
-        <v>7552.743774999999</v>
+        <v>1825.193848</v>
       </c>
       <c r="I18">
-        <v>0.3871709269072258</v>
+        <v>0.2022131050118309</v>
       </c>
       <c r="J18">
-        <v>0.3871709269072258</v>
+        <v>0.202213105011831</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.452280999999999</v>
+        <v>8.370851</v>
       </c>
       <c r="N18">
-        <v>22.356843</v>
+        <v>25.112553</v>
       </c>
       <c r="O18">
-        <v>0.0611082743562504</v>
+        <v>0.07151104607333426</v>
       </c>
       <c r="P18">
-        <v>0.06110827435625042</v>
+        <v>0.07151104607333425</v>
       </c>
       <c r="Q18">
-        <v>18761.72297743359</v>
+        <v>5092.808582574882</v>
       </c>
       <c r="R18">
-        <v>168855.5067969023</v>
+        <v>45835.27724317394</v>
       </c>
       <c r="S18">
-        <v>0.02365934722421052</v>
+        <v>0.01446047066913302</v>
       </c>
       <c r="T18">
-        <v>0.02365934722421053</v>
+        <v>0.01446047066913302</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2517.581258333333</v>
+        <v>608.3979493333333</v>
       </c>
       <c r="H19">
-        <v>7552.743774999999</v>
+        <v>1825.193848</v>
       </c>
       <c r="I19">
-        <v>0.3871709269072258</v>
+        <v>0.2022131050118309</v>
       </c>
       <c r="J19">
-        <v>0.3871709269072258</v>
+        <v>0.202213105011831</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>24.85018033333334</v>
+        <v>12.20582166666667</v>
       </c>
       <c r="N19">
-        <v>74.55054100000001</v>
+        <v>36.617465</v>
       </c>
       <c r="O19">
-        <v>0.2037700453876648</v>
+        <v>0.1042726809458084</v>
       </c>
       <c r="P19">
-        <v>0.2037700453876648</v>
+        <v>0.1042726809458084</v>
       </c>
       <c r="Q19">
-        <v>62562.34827340359</v>
+        <v>7425.996871928367</v>
       </c>
       <c r="R19">
-        <v>563061.1344606322</v>
+        <v>66833.97184735531</v>
       </c>
       <c r="S19">
-        <v>0.07889383734866963</v>
+        <v>0.0210853025819599</v>
       </c>
       <c r="T19">
-        <v>0.07889383734866964</v>
+        <v>0.02108530258195991</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>27.06326066666667</v>
+        <v>3.045399333333334</v>
       </c>
       <c r="H20">
-        <v>81.18978200000001</v>
+        <v>9.136198</v>
       </c>
       <c r="I20">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="J20">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>64.44050866666666</v>
+        <v>72.23097766666666</v>
       </c>
       <c r="N20">
-        <v>193.321526</v>
+        <v>216.692933</v>
       </c>
       <c r="O20">
-        <v>0.5284084541711455</v>
+        <v>0.6170594568990628</v>
       </c>
       <c r="P20">
-        <v>0.5284084541711456</v>
+        <v>0.6170594568990629</v>
       </c>
       <c r="Q20">
-        <v>1743.970283538592</v>
+        <v>219.9721712320816</v>
       </c>
       <c r="R20">
-        <v>15695.73255184733</v>
+        <v>1979.749541088734</v>
       </c>
       <c r="S20">
-        <v>0.00219922224289171</v>
+        <v>0.0006245868224874033</v>
       </c>
       <c r="T20">
-        <v>0.00219922224289171</v>
+        <v>0.0006245868224874033</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>27.06326066666667</v>
+        <v>3.045399333333334</v>
       </c>
       <c r="H21">
-        <v>81.18978200000001</v>
+        <v>9.136198</v>
       </c>
       <c r="I21">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="J21">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>7.371831</v>
       </c>
       <c r="O21">
-        <v>0.02014952966552173</v>
+        <v>0.02099218451767264</v>
       </c>
       <c r="P21">
-        <v>0.02014952966552173</v>
+        <v>0.02099218451767265</v>
       </c>
       <c r="Q21">
-        <v>66.50192798120467</v>
+        <v>7.483389737615334</v>
       </c>
       <c r="R21">
-        <v>598.5173518308421</v>
+        <v>67.35050763853801</v>
       </c>
       <c r="S21">
-        <v>8.386181839904699E-05</v>
+        <v>2.124826332109381E-05</v>
       </c>
       <c r="T21">
-        <v>8.386181839904702E-05</v>
+        <v>2.12482633210938E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>27.06326066666667</v>
+        <v>3.045399333333334</v>
       </c>
       <c r="H22">
-        <v>81.18978200000001</v>
+        <v>9.136198</v>
       </c>
       <c r="I22">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="J22">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>19.791731</v>
+        <v>18.10887533333333</v>
       </c>
       <c r="N22">
-        <v>59.375193</v>
+        <v>54.326626</v>
       </c>
       <c r="O22">
-        <v>0.162291052623097</v>
+        <v>0.1547016687190187</v>
       </c>
       <c r="P22">
-        <v>0.1622910526230971</v>
+        <v>0.1547016687190187</v>
       </c>
       <c r="Q22">
-        <v>535.6287750975473</v>
+        <v>55.14875686754979</v>
       </c>
       <c r="R22">
-        <v>4820.658975877926</v>
+        <v>496.338811807948</v>
       </c>
       <c r="S22">
-        <v>0.0006754511399914575</v>
+        <v>0.000156588838593096</v>
       </c>
       <c r="T22">
-        <v>0.0006754511399914576</v>
+        <v>0.0001565888385930959</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>27.06326066666667</v>
+        <v>3.045399333333334</v>
       </c>
       <c r="H23">
-        <v>81.18978200000001</v>
+        <v>9.136198</v>
       </c>
       <c r="I23">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="J23">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.960099333333333</v>
+        <v>3.682952333333333</v>
       </c>
       <c r="N23">
-        <v>8.880298</v>
+        <v>11.048857</v>
       </c>
       <c r="O23">
-        <v>0.02427264379632052</v>
+        <v>0.03146296284510307</v>
       </c>
       <c r="P23">
-        <v>0.02427264379632052</v>
+        <v>0.03146296284510307</v>
       </c>
       <c r="Q23">
-        <v>80.10993985722622</v>
+        <v>11.21606058063178</v>
       </c>
       <c r="R23">
-        <v>720.9894587150361</v>
+        <v>100.944545225686</v>
       </c>
       <c r="S23">
-        <v>0.0001010221121734099</v>
+        <v>3.184677225144073E-05</v>
       </c>
       <c r="T23">
-        <v>0.0001010221121734099</v>
+        <v>3.184677225144072E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>27.06326066666667</v>
+        <v>3.045399333333334</v>
       </c>
       <c r="H24">
-        <v>81.18978200000001</v>
+        <v>9.136198</v>
       </c>
       <c r="I24">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="J24">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.452280999999999</v>
+        <v>8.370851</v>
       </c>
       <c r="N24">
-        <v>22.356843</v>
+        <v>25.112553</v>
       </c>
       <c r="O24">
-        <v>0.0611082743562504</v>
+        <v>0.07151104607333426</v>
       </c>
       <c r="P24">
-        <v>0.06110827435625042</v>
+        <v>0.07151104607333425</v>
       </c>
       <c r="Q24">
-        <v>201.6830232642473</v>
+        <v>25.49258405483267</v>
       </c>
       <c r="R24">
-        <v>1815.147209378226</v>
+        <v>229.433256493494</v>
       </c>
       <c r="S24">
-        <v>0.0002543310485064029</v>
+        <v>7.238339278381779E-05</v>
       </c>
       <c r="T24">
-        <v>0.000254331048506403</v>
+        <v>7.238339278381776E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>27.06326066666667</v>
+        <v>3.045399333333334</v>
       </c>
       <c r="H25">
-        <v>81.18978200000001</v>
+        <v>9.136198</v>
       </c>
       <c r="I25">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="J25">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>24.85018033333334</v>
+        <v>12.20582166666667</v>
       </c>
       <c r="N25">
-        <v>74.55054100000001</v>
+        <v>36.617465</v>
       </c>
       <c r="O25">
-        <v>0.2037700453876648</v>
+        <v>0.1042726809458084</v>
       </c>
       <c r="P25">
-        <v>0.2037700453876648</v>
+        <v>0.1042726809458084</v>
       </c>
       <c r="Q25">
-        <v>672.5269079746737</v>
+        <v>37.17160116645222</v>
       </c>
       <c r="R25">
-        <v>6052.742171772064</v>
+        <v>334.54441049807</v>
       </c>
       <c r="S25">
-        <v>0.0008480856290510062</v>
+        <v>0.0001055446792623076</v>
       </c>
       <c r="T25">
-        <v>0.0008480856290510063</v>
+        <v>0.0001055446792623076</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>274.3202006666667</v>
+        <v>255.8380176666667</v>
       </c>
       <c r="H26">
-        <v>822.960602</v>
+        <v>767.514053</v>
       </c>
       <c r="I26">
-        <v>0.04218684342756861</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="J26">
-        <v>0.04218684342756862</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>64.44050866666666</v>
+        <v>72.23097766666666</v>
       </c>
       <c r="N26">
-        <v>193.321526</v>
+        <v>216.692933</v>
       </c>
       <c r="O26">
-        <v>0.5284084541711455</v>
+        <v>0.6170594568990628</v>
       </c>
       <c r="P26">
-        <v>0.5284084541711456</v>
+        <v>0.6170594568990629</v>
       </c>
       <c r="Q26">
-        <v>17677.33326850207</v>
+        <v>18479.43014036527</v>
       </c>
       <c r="R26">
-        <v>159095.9994165186</v>
+        <v>166314.8712632874</v>
       </c>
       <c r="S26">
-        <v>0.02229188472192168</v>
+        <v>0.0524703124404373</v>
       </c>
       <c r="T26">
-        <v>0.02229188472192169</v>
+        <v>0.05247031244043731</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>274.3202006666667</v>
+        <v>255.8380176666667</v>
       </c>
       <c r="H27">
-        <v>822.960602</v>
+        <v>767.514053</v>
       </c>
       <c r="I27">
-        <v>0.04218684342756861</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="J27">
-        <v>0.04218684342756862</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>7.371831</v>
       </c>
       <c r="O27">
-        <v>0.02014952966552173</v>
+        <v>0.02099218451767264</v>
       </c>
       <c r="P27">
-        <v>0.02014952966552173</v>
+        <v>0.02099218451767265</v>
       </c>
       <c r="Q27">
-        <v>674.0807197335846</v>
+        <v>628.6648765378936</v>
       </c>
       <c r="R27">
-        <v>6066.726477602262</v>
+        <v>5657.983888841043</v>
       </c>
       <c r="S27">
-        <v>0.0008500450531385141</v>
+        <v>0.001785024875860171</v>
       </c>
       <c r="T27">
-        <v>0.0008500450531385145</v>
+        <v>0.001785024875860171</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>274.3202006666667</v>
+        <v>255.8380176666667</v>
       </c>
       <c r="H28">
-        <v>822.960602</v>
+        <v>767.514053</v>
       </c>
       <c r="I28">
-        <v>0.04218684342756861</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="J28">
-        <v>0.04218684342756862</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>19.791731</v>
+        <v>18.10887533333333</v>
       </c>
       <c r="N28">
-        <v>59.375193</v>
+        <v>54.326626</v>
       </c>
       <c r="O28">
-        <v>0.162291052623097</v>
+        <v>0.1547016687190187</v>
       </c>
       <c r="P28">
-        <v>0.1622910526230971</v>
+        <v>0.1547016687190187</v>
       </c>
       <c r="Q28">
-        <v>5429.271619460687</v>
+        <v>4632.938767452798</v>
       </c>
       <c r="R28">
-        <v>48863.44457514618</v>
+        <v>41696.44890707518</v>
       </c>
       <c r="S28">
-        <v>0.006846547226705893</v>
+        <v>0.01315472083279608</v>
       </c>
       <c r="T28">
-        <v>0.006846547226705896</v>
+        <v>0.01315472083279608</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>274.3202006666667</v>
+        <v>255.8380176666667</v>
       </c>
       <c r="H29">
-        <v>822.960602</v>
+        <v>767.514053</v>
       </c>
       <c r="I29">
-        <v>0.04218684342756861</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="J29">
-        <v>0.04218684342756862</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.960099333333333</v>
+        <v>3.682952333333333</v>
       </c>
       <c r="N29">
-        <v>8.880298</v>
+        <v>11.048857</v>
       </c>
       <c r="O29">
-        <v>0.02427264379632052</v>
+        <v>0.03146296284510307</v>
       </c>
       <c r="P29">
-        <v>0.02427264379632052</v>
+        <v>0.03146296284510307</v>
       </c>
       <c r="Q29">
-        <v>812.0150431132662</v>
+        <v>942.2392241208246</v>
       </c>
       <c r="R29">
-        <v>7308.135388019396</v>
+        <v>8480.153017087421</v>
       </c>
       <c r="S29">
-        <v>0.001023986223408518</v>
+        <v>0.002675384798542151</v>
       </c>
       <c r="T29">
-        <v>0.001023986223408519</v>
+        <v>0.002675384798542151</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>274.3202006666667</v>
+        <v>255.8380176666667</v>
       </c>
       <c r="H30">
-        <v>822.960602</v>
+        <v>767.514053</v>
       </c>
       <c r="I30">
-        <v>0.04218684342756861</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="J30">
-        <v>0.04218684342756862</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>7.452280999999999</v>
+        <v>8.370851</v>
       </c>
       <c r="N30">
-        <v>22.356843</v>
+        <v>25.112553</v>
       </c>
       <c r="O30">
-        <v>0.0611082743562504</v>
+        <v>0.07151104607333426</v>
       </c>
       <c r="P30">
-        <v>0.06110827435625042</v>
+        <v>0.07151104607333425</v>
       </c>
       <c r="Q30">
-        <v>2044.311219344387</v>
+        <v>2141.581926023035</v>
       </c>
       <c r="R30">
-        <v>18398.80097409949</v>
+        <v>19274.23733420731</v>
       </c>
       <c r="S30">
-        <v>0.002577965202396042</v>
+        <v>0.006080786686693845</v>
       </c>
       <c r="T30">
-        <v>0.002577965202396043</v>
+        <v>0.006080786686693844</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>274.3202006666667</v>
+        <v>255.8380176666667</v>
       </c>
       <c r="H31">
-        <v>822.960602</v>
+        <v>767.514053</v>
       </c>
       <c r="I31">
-        <v>0.04218684342756861</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="J31">
-        <v>0.04218684342756862</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>24.85018033333334</v>
+        <v>12.20582166666667</v>
       </c>
       <c r="N31">
-        <v>74.55054100000001</v>
+        <v>36.617465</v>
       </c>
       <c r="O31">
-        <v>0.2037700453876648</v>
+        <v>0.1042726809458084</v>
       </c>
       <c r="P31">
-        <v>0.2037700453876648</v>
+        <v>0.1042726809458084</v>
       </c>
       <c r="Q31">
-        <v>6816.906455642855</v>
+        <v>3122.713219192849</v>
       </c>
       <c r="R31">
-        <v>61352.15810078569</v>
+        <v>28104.41897273564</v>
       </c>
       <c r="S31">
-        <v>0.008596414999997963</v>
+        <v>0.008866601244105998</v>
       </c>
       <c r="T31">
-        <v>0.008596414999997967</v>
+        <v>0.008866601244105998</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>3661.277099333334</v>
+        <v>2125.066569</v>
       </c>
       <c r="H32">
-        <v>10983.831298</v>
+        <v>6375.199707000001</v>
       </c>
       <c r="I32">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="J32">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>64.44050866666666</v>
+        <v>72.23097766666666</v>
       </c>
       <c r="N32">
-        <v>193.321526</v>
+        <v>216.692933</v>
       </c>
       <c r="O32">
-        <v>0.5284084541711455</v>
+        <v>0.6170594568990628</v>
       </c>
       <c r="P32">
-        <v>0.5284084541711456</v>
+        <v>0.6170594568990629</v>
       </c>
       <c r="Q32">
-        <v>235934.5586506579</v>
+        <v>153495.6358856189</v>
       </c>
       <c r="R32">
-        <v>2123411.027855921</v>
+        <v>1381460.722970571</v>
       </c>
       <c r="S32">
-        <v>0.2975237216763524</v>
+        <v>0.4358340009397513</v>
       </c>
       <c r="T32">
-        <v>0.2975237216763524</v>
+        <v>0.4358340009397514</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>3661.277099333334</v>
+        <v>2125.066569</v>
       </c>
       <c r="H33">
-        <v>10983.831298</v>
+        <v>6375.199707000001</v>
       </c>
       <c r="I33">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="J33">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>7.371831</v>
       </c>
       <c r="O33">
-        <v>0.02014952966552173</v>
+        <v>0.02099218451767264</v>
       </c>
       <c r="P33">
-        <v>0.02014952966552173</v>
+        <v>0.02099218451767265</v>
       </c>
       <c r="Q33">
-        <v>8996.772006818515</v>
+        <v>5221.877203472613</v>
       </c>
       <c r="R33">
-        <v>80970.94806136665</v>
+        <v>46996.89483125352</v>
       </c>
       <c r="S33">
-        <v>0.01134532009999293</v>
+        <v>0.0148269468436319</v>
       </c>
       <c r="T33">
-        <v>0.01134532009999294</v>
+        <v>0.0148269468436319</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>3661.277099333334</v>
+        <v>2125.066569</v>
       </c>
       <c r="H34">
-        <v>10983.831298</v>
+        <v>6375.199707000001</v>
       </c>
       <c r="I34">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="J34">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>19.791731</v>
+        <v>18.10887533333333</v>
       </c>
       <c r="N34">
-        <v>59.375193</v>
+        <v>54.326626</v>
       </c>
       <c r="O34">
-        <v>0.162291052623097</v>
+        <v>0.1547016687190187</v>
       </c>
       <c r="P34">
-        <v>0.1622910526230971</v>
+        <v>0.1547016687190187</v>
       </c>
       <c r="Q34">
-        <v>72463.01146646561</v>
+        <v>38482.5655730554</v>
       </c>
       <c r="R34">
-        <v>652167.1031981906</v>
+        <v>346343.0901574987</v>
       </c>
       <c r="S34">
-        <v>0.09137900347740742</v>
+        <v>0.1092670187224681</v>
       </c>
       <c r="T34">
-        <v>0.09137900347740743</v>
+        <v>0.1092670187224681</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>3661.277099333334</v>
+        <v>2125.066569</v>
       </c>
       <c r="H35">
-        <v>10983.831298</v>
+        <v>6375.199707000001</v>
       </c>
       <c r="I35">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="J35">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.960099333333333</v>
+        <v>3.682952333333333</v>
       </c>
       <c r="N35">
-        <v>8.880298</v>
+        <v>11.048857</v>
       </c>
       <c r="O35">
-        <v>0.02427264379632052</v>
+        <v>0.03146296284510307</v>
       </c>
       <c r="P35">
-        <v>0.02427264379632052</v>
+        <v>0.03146296284510307</v>
       </c>
       <c r="Q35">
-        <v>10837.7439008852</v>
+        <v>7826.518878787211</v>
       </c>
       <c r="R35">
-        <v>97539.69510796681</v>
+        <v>70438.6699090849</v>
       </c>
       <c r="S35">
-        <v>0.01366686558513442</v>
+        <v>0.02222254083441281</v>
       </c>
       <c r="T35">
-        <v>0.01366686558513442</v>
+        <v>0.02222254083441281</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>3661.277099333334</v>
+        <v>2125.066569</v>
       </c>
       <c r="H36">
-        <v>10983.831298</v>
+        <v>6375.199707000001</v>
       </c>
       <c r="I36">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="J36">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>7.452280999999999</v>
+        <v>8.370851</v>
       </c>
       <c r="N36">
-        <v>22.356843</v>
+        <v>25.112553</v>
       </c>
       <c r="O36">
-        <v>0.0611082743562504</v>
+        <v>0.07151104607333426</v>
       </c>
       <c r="P36">
-        <v>0.06110827435625042</v>
+        <v>0.07151104607333425</v>
       </c>
       <c r="Q36">
-        <v>27284.86576309691</v>
+        <v>17788.61561418022</v>
       </c>
       <c r="R36">
-        <v>245563.7918678722</v>
+        <v>160097.540527622</v>
       </c>
       <c r="S36">
-        <v>0.03440740031347522</v>
+        <v>0.05050882045978655</v>
       </c>
       <c r="T36">
-        <v>0.03440740031347522</v>
+        <v>0.05050882045978655</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>3661.277099333334</v>
+        <v>2125.066569</v>
       </c>
       <c r="H37">
-        <v>10983.831298</v>
+        <v>6375.199707000001</v>
       </c>
       <c r="I37">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="J37">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>24.85018033333334</v>
+        <v>12.20582166666667</v>
       </c>
       <c r="N37">
-        <v>74.55054100000001</v>
+        <v>36.617465</v>
       </c>
       <c r="O37">
-        <v>0.2037700453876648</v>
+        <v>0.1042726809458084</v>
       </c>
       <c r="P37">
-        <v>0.2037700453876648</v>
+        <v>0.1042726809458084</v>
       </c>
       <c r="Q37">
-        <v>90983.39616873694</v>
+        <v>25938.18357100919</v>
       </c>
       <c r="R37">
-        <v>818850.5655186324</v>
+        <v>233443.6521390828</v>
       </c>
       <c r="S37">
-        <v>0.1147340126588154</v>
+        <v>0.07364862367348782</v>
       </c>
       <c r="T37">
-        <v>0.1147340126588154</v>
+        <v>0.07364862367348783</v>
       </c>
     </row>
   </sheetData>
